--- a/program_files/urban_district_upscaling/pre_scenario.xlsx
+++ b/program_files/urban_district_upscaling/pre_scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Troubleshooting\SESMG-0.2\program_files\urban_district_upscaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klemm\Documents\PythonScripts\SESMG_v02_GIT\SESMG-0.2\program_files\urban_district_upscaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BE549-78E2-4122-8D9F-2E0A6217B954}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B1CFD-290B-41DF-9492-BB677F9DBD7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-24" windowWidth="23256" windowHeight="12576" xr2:uid="{BD95658B-D9D3-4912-BAF1-52F5768371A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BD95658B-D9D3-4912-BAF1-52F5768371A5}"/>
   </bookViews>
   <sheets>
     <sheet name="tool" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="103">
   <si>
     <t>label</t>
   </si>
@@ -145,6 +145,24 @@
     <t>central_swhp_transformer</t>
   </si>
   <si>
+    <t>roof area 5 (m²)</t>
+  </si>
+  <si>
+    <t>surface tilt 5 (°)</t>
+  </si>
+  <si>
+    <t>azimuth 5 (°)</t>
+  </si>
+  <si>
+    <t>electric heating</t>
+  </si>
+  <si>
+    <t>biomass_plant</t>
+  </si>
+  <si>
+    <t>power_to_gas</t>
+  </si>
+  <si>
     <t>uaC</t>
   </si>
   <si>
@@ -329,15 +347,6 @@
   </si>
   <si>
     <t>wAV</t>
-  </si>
-  <si>
-    <t>roof area 5 (m²)</t>
-  </si>
-  <si>
-    <t>surface tilt 5 (°)</t>
-  </si>
-  <si>
-    <t>azimuth 5 (°)</t>
   </si>
 </sst>
 </file>
@@ -405,20 +414,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +748,7 @@
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +791,7 @@
         <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
         <v>18</v>
@@ -798,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -813,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="X1" t="s">
         <v>6</v>
@@ -845,78 +853,82 @@
       <c r="AG1" t="s">
         <v>12</v>
       </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2"/>
+      <c r="C2">
         <v>1960</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>786.74783100000002</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="8">
         <v>-102.35042432081799</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="8">
         <v>-102.169104007166</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="8">
         <v>167.71222301466599</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="8">
         <v>168.09229045278201</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="8">
         <v>0</v>
       </c>
       <c r="N2">
         <v>38.2086639894314</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="8">
         <v>50.441890856919997</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="8">
         <v>50.313738026843602</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="8">
         <v>30.599244115982302</v>
       </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
         <v>98.052631578947356</v>
       </c>
       <c r="T2">
         <v>98.052631578947356</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="9">
         <v>18.473684210526315</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="9">
         <v>230.21052631578948</v>
       </c>
-      <c r="W2" s="10">
-        <v>0</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z2">
@@ -943,22 +955,24 @@
       <c r="AG2" t="s">
         <v>13</v>
       </c>
-      <c r="AH2"/>
+      <c r="AH2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>1919</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" s="2">
@@ -967,55 +981,55 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
         <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8">
         <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" s="10">
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <v>0</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="10" t="s">
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z3">
@@ -1045,18 +1059,18 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="2">
@@ -1065,55 +1079,55 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
         <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
         <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" s="10">
-        <v>0</v>
-      </c>
-      <c r="V4" s="10">
-        <v>0</v>
-      </c>
-      <c r="W4" s="10">
-        <v>0</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="10" t="s">
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z4">
@@ -1143,18 +1157,18 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1970</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" s="2">
@@ -1163,55 +1177,55 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <v>-106.767750435672</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="8">
         <v>-106.767750435672</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
         <v>0</v>
       </c>
       <c r="N5">
         <v>43.159312712730802</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="8">
         <v>43.159312712730802</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8">
         <v>66.78947368421052</v>
       </c>
       <c r="T5">
         <v>66.78947368421052</v>
       </c>
-      <c r="U5" s="10">
-        <v>0</v>
-      </c>
-      <c r="V5" s="10">
-        <v>0</v>
-      </c>
-      <c r="W5" s="10">
-        <v>0</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="10" t="s">
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z5">
@@ -1241,18 +1255,18 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1990</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="2">
@@ -1261,55 +1275,55 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="8">
         <v>146.378406624528</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <v>-159.05533450331899</v>
       </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>0</v>
       </c>
       <c r="N6">
         <v>0.37131513385047799</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="8">
         <v>0.79210512812510803</v>
       </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8">
         <v>18.473684210526315</v>
       </c>
       <c r="T6">
         <v>18.473684210526315</v>
       </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="10" t="s">
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z6">
@@ -1339,18 +1353,18 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>1970</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>5</v>
       </c>
       <c r="G7" s="2">
@@ -1359,55 +1373,55 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
         <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
         <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="10" t="s">
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z7">
@@ -1437,18 +1451,18 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" s="2">
@@ -1457,55 +1471,55 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="8">
         <v>-116.507653923749</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>0</v>
       </c>
       <c r="N8">
         <v>37.040805267244203</v>
       </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
         <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="10" t="s">
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z8">
@@ -1535,18 +1549,18 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1980</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" s="2">
@@ -1555,55 +1569,55 @@
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
         <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
         <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="10">
-        <v>0</v>
-      </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="10" t="s">
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z9">
@@ -1633,18 +1647,18 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1970</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>5</v>
       </c>
       <c r="G10" s="2">
@@ -1653,55 +1667,55 @@
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
         <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
         <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" s="10">
-        <v>0</v>
-      </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="10" t="s">
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z10">
@@ -1731,18 +1745,18 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>1970</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>5</v>
       </c>
       <c r="G11" s="2">
@@ -1751,55 +1765,55 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="8">
         <v>174.241739830104</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
         <v>0</v>
       </c>
       <c r="N11">
         <v>0.26480901305118199</v>
       </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8">
         <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" s="10">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10">
-        <v>0</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="10" t="s">
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z11">
@@ -1829,18 +1843,18 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>1990</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="2">
@@ -1849,55 +1863,55 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="8">
         <v>-106.579476902954</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
         <v>0</v>
       </c>
       <c r="N12">
         <v>48.916212088963199</v>
       </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
         <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" s="10">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10">
-        <v>0</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="10" t="s">
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z12">
@@ -1927,18 +1941,18 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>1980</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" s="2">
@@ -1947,55 +1961,55 @@
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="8">
         <v>-115.678134668338</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="8">
         <v>-115.888069127468</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
         <v>0</v>
       </c>
       <c r="N13">
         <v>48.675234295651897</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="8">
         <v>24.986619983590799</v>
       </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
         <v>11.368421052631579</v>
       </c>
       <c r="T13">
         <v>11.368421052631579</v>
       </c>
-      <c r="U13" s="10">
-        <v>0</v>
-      </c>
-      <c r="V13" s="10">
-        <v>0</v>
-      </c>
-      <c r="W13" s="10">
-        <v>0</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="10" t="s">
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z13">
@@ -2025,18 +2039,18 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1970</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" s="2">
@@ -2045,55 +2059,55 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="8">
         <v>-116.622252334652</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="8">
         <v>-116.622252334652</v>
       </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
         <v>0</v>
       </c>
       <c r="N14">
         <v>46.420872602528199</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="8">
         <v>46.420872602528199</v>
       </c>
-      <c r="P14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
         <v>34.10526315789474</v>
       </c>
       <c r="T14">
         <v>34.10526315789474</v>
       </c>
-      <c r="U14" s="10">
-        <v>0</v>
-      </c>
-      <c r="V14" s="10">
-        <v>0</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y14" s="10" t="s">
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z14">
@@ -2123,18 +2137,18 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>1970</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>9</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" s="2">
@@ -2143,55 +2157,55 @@
       <c r="H15">
         <v>3</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="8">
         <v>-121.267347434998</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <v>-121.267347434998</v>
       </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
         <v>0</v>
       </c>
       <c r="N15">
         <v>29.836947237648602</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="8">
         <v>29.836947237648602</v>
       </c>
-      <c r="P15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
         <v>31.263157894736842</v>
       </c>
       <c r="T15">
         <v>31.263157894736842</v>
       </c>
-      <c r="U15" s="10">
-        <v>0</v>
-      </c>
-      <c r="V15" s="10">
-        <v>0</v>
-      </c>
-      <c r="W15" s="10">
-        <v>0</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y15" s="10" t="s">
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z15">
@@ -2221,18 +2235,18 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>1970</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>5</v>
       </c>
       <c r="G16" s="2">
@@ -2241,55 +2255,55 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="8">
         <v>-108.35751409371601</v>
       </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
         <v>0</v>
       </c>
       <c r="N16">
         <v>35.455224350191003</v>
       </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8">
         <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="10">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="10" t="s">
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z16">
@@ -2319,18 +2333,18 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="2">
@@ -2339,55 +2353,55 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="8">
         <v>-116.84690927308699</v>
       </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
         <v>0</v>
       </c>
       <c r="N17">
         <v>39.320355151574198</v>
       </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
         <v>0</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="10">
-        <v>0</v>
-      </c>
-      <c r="V17" s="10">
-        <v>0</v>
-      </c>
-      <c r="W17" s="10">
-        <v>0</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="10" t="s">
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z17">
@@ -2417,18 +2431,18 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1970</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="2">
@@ -2437,55 +2451,55 @@
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="8">
         <v>-111.625326765954</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="8">
         <v>-156.01058994169401</v>
       </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
         <v>0</v>
       </c>
       <c r="N18">
         <v>0.47327622919131701</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="8">
         <v>0.54674738575207305</v>
       </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
         <v>22.736842105263158</v>
       </c>
       <c r="T18">
         <v>22.736842105263158</v>
       </c>
-      <c r="U18" s="10">
-        <v>0</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y18" s="10" t="s">
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z18">
@@ -2515,18 +2529,18 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>1970</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="2">
@@ -2535,55 +2549,55 @@
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="8">
         <v>-116.149736380568</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
         <v>0</v>
       </c>
       <c r="N19">
         <v>39.0564297312985</v>
       </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
         <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" s="10">
-        <v>0</v>
-      </c>
-      <c r="V19" s="10">
-        <v>0</v>
-      </c>
-      <c r="W19" s="10">
-        <v>0</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y19" s="10" t="s">
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z19">
@@ -2613,18 +2627,18 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="2">
@@ -2633,55 +2647,55 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="8">
         <v>-121.48108446696401</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="8">
         <v>-121.48108446696401</v>
       </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
         <v>0</v>
       </c>
       <c r="N20">
         <v>29.7747959955311</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="8">
         <v>29.7747959955311</v>
       </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
         <v>31.263157894736842</v>
       </c>
       <c r="T20">
         <v>31.263157894736842</v>
       </c>
-      <c r="U20" s="10">
-        <v>0</v>
-      </c>
-      <c r="V20" s="10">
-        <v>0</v>
-      </c>
-      <c r="W20" s="10">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y20" s="10" t="s">
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z20">
@@ -2711,18 +2725,18 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>1970</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" s="2">
@@ -2731,55 +2745,55 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="8">
         <v>-116.950854390654</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
         <v>0</v>
       </c>
       <c r="N21">
         <v>37.445462744354003</v>
       </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
         <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="10">
-        <v>0</v>
-      </c>
-      <c r="W21" s="10">
-        <v>0</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y21" s="10" t="s">
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z21">
@@ -2809,18 +2823,18 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>1970</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" s="2">
@@ -2829,55 +2843,55 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="8">
         <v>161.253827836505</v>
       </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
         <v>0</v>
       </c>
       <c r="N22">
         <v>50.259105846371803</v>
       </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
         <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" s="10">
-        <v>0</v>
-      </c>
-      <c r="V22" s="10">
-        <v>0</v>
-      </c>
-      <c r="W22" s="10">
-        <v>0</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y22" s="10" t="s">
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z22">
@@ -2907,18 +2921,18 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>1970</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" s="2">
@@ -2927,55 +2941,55 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="8">
         <v>-106.927513051684</v>
       </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
         <v>0</v>
       </c>
       <c r="N23">
         <v>46.5108930668342</v>
       </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
         <v>0</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" s="10">
-        <v>0</v>
-      </c>
-      <c r="V23" s="10">
-        <v>0</v>
-      </c>
-      <c r="W23" s="10">
-        <v>0</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y23" s="10" t="s">
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z23">
@@ -3005,18 +3019,18 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>1970</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" s="2">
@@ -3025,55 +3039,55 @@
       <c r="H24">
         <v>2</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="8">
         <v>137.05289276527299</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="8">
         <v>137.05289276527299</v>
       </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
         <v>0</v>
       </c>
       <c r="N24">
         <v>30.366302144333702</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="8">
         <v>30.366302144333702</v>
       </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="8">
         <v>31.263157894736842</v>
       </c>
       <c r="T24">
         <v>31.263157894736842</v>
       </c>
-      <c r="U24" s="10">
-        <v>0</v>
-      </c>
-      <c r="V24" s="10">
-        <v>0</v>
-      </c>
-      <c r="W24" s="10">
-        <v>0</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y24" s="10" t="s">
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z24">
@@ -3103,18 +3117,18 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="2">
@@ -3123,55 +3137,55 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="8">
         <v>-116.769121893235</v>
       </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
         <v>0</v>
       </c>
       <c r="N25">
         <v>34.788566743486598</v>
       </c>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8">
         <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25" s="10">
-        <v>0</v>
-      </c>
-      <c r="V25" s="10">
-        <v>0</v>
-      </c>
-      <c r="W25" s="10">
-        <v>0</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y25" s="10" t="s">
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z25">
@@ -3201,18 +3215,18 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="2">
@@ -3221,55 +3235,55 @@
       <c r="H26">
         <v>2</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="8">
         <v>144.511267760706</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="8">
         <v>144.511267760706</v>
       </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5">
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
         <v>0</v>
       </c>
       <c r="N26">
         <v>26.833565682556301</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="8">
         <v>26.833565682556301</v>
       </c>
-      <c r="P26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
+      <c r="P26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
         <v>17.05263157894737</v>
       </c>
       <c r="T26">
         <v>17.05263157894737</v>
       </c>
-      <c r="U26" s="10">
-        <v>0</v>
-      </c>
-      <c r="V26" s="10">
-        <v>0</v>
-      </c>
-      <c r="W26" s="10">
-        <v>0</v>
-      </c>
-      <c r="X26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y26" s="10" t="s">
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z26">
@@ -3299,18 +3313,18 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>1990</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" s="2">
@@ -3319,55 +3333,55 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0</v>
-      </c>
-      <c r="M27" s="5">
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
         <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
-      <c r="O27" s="5">
-        <v>0</v>
-      </c>
-      <c r="P27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
         <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="10">
-        <v>0</v>
-      </c>
-      <c r="V27" s="10">
-        <v>0</v>
-      </c>
-      <c r="W27" s="10">
-        <v>0</v>
-      </c>
-      <c r="X27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y27" s="10" t="s">
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z27">
@@ -3397,18 +3411,18 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>1970</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" s="2">
@@ -3417,55 +3431,55 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="8">
         <v>-109.09758434806599</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="8">
         <v>158.91503189836101</v>
       </c>
-      <c r="K28" s="5">
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5">
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
         <v>0</v>
       </c>
       <c r="N28">
         <v>36.062526560310303</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="8">
         <v>50.329477461224698</v>
       </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>0</v>
-      </c>
-      <c r="R28" s="5">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
+      <c r="P28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
         <v>12.789473684210527</v>
       </c>
       <c r="T28">
         <v>12.789473684210527</v>
       </c>
-      <c r="U28" s="10">
-        <v>0</v>
-      </c>
-      <c r="V28" s="10">
-        <v>0</v>
-      </c>
-      <c r="W28" s="10">
-        <v>0</v>
-      </c>
-      <c r="X28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y28" s="10" t="s">
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z28">
@@ -3495,18 +3509,18 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" s="2">
@@ -3515,55 +3529,55 @@
       <c r="H29">
         <v>3</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="8">
         <v>-121.300641786746</v>
       </c>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5">
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
         <v>0</v>
       </c>
       <c r="N29">
         <v>29.990733505547599</v>
       </c>
-      <c r="O29" s="5">
-        <v>0</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>0</v>
-      </c>
-      <c r="R29" s="5">
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8">
         <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29" s="10">
-        <v>0</v>
-      </c>
-      <c r="V29" s="10">
-        <v>0</v>
-      </c>
-      <c r="W29" s="10">
-        <v>0</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y29" s="10" t="s">
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z29">
@@ -3593,18 +3607,18 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>1980</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" s="2">
@@ -3613,55 +3627,55 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
         <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
-      <c r="O30" s="5">
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
         <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="10">
-        <v>0</v>
-      </c>
-      <c r="V30" s="10">
-        <v>0</v>
-      </c>
-      <c r="W30" s="10">
-        <v>0</v>
-      </c>
-      <c r="X30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y30" s="10" t="s">
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z30">
@@ -3691,18 +3705,18 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" s="2">
@@ -3711,55 +3725,55 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="8">
         <v>137.453599475396</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="8">
         <v>137.453599475396</v>
       </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
         <v>0</v>
       </c>
       <c r="N31">
         <v>30.0484929039254</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="8">
         <v>30.0484929039254</v>
       </c>
-      <c r="P31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
+      <c r="P31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
         <v>29.842105263157894</v>
       </c>
       <c r="T31">
         <v>29.842105263157894</v>
       </c>
-      <c r="U31" s="10">
-        <v>0</v>
-      </c>
-      <c r="V31" s="10">
-        <v>0</v>
-      </c>
-      <c r="W31" s="10">
-        <v>0</v>
-      </c>
-      <c r="X31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y31" s="10" t="s">
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z31">
@@ -3789,18 +3803,18 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>1970</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>3</v>
       </c>
       <c r="G32" s="2">
@@ -3809,55 +3823,55 @@
       <c r="H32">
         <v>3</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="8">
         <v>-115.96681447698001</v>
       </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
-      <c r="K32" s="5">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="5">
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
         <v>0</v>
       </c>
       <c r="N32">
         <v>43.947442251402201</v>
       </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
         <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32" s="10">
-        <v>0</v>
-      </c>
-      <c r="V32" s="10">
-        <v>0</v>
-      </c>
-      <c r="W32" s="10">
-        <v>0</v>
-      </c>
-      <c r="X32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y32" s="10" t="s">
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z32">
@@ -3887,18 +3901,18 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <v>2000</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>3</v>
       </c>
       <c r="G33" s="2">
@@ -3907,55 +3921,55 @@
       <c r="H33">
         <v>3</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="8">
         <v>-116.022992103276</v>
       </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
         <v>0</v>
       </c>
       <c r="N33">
         <v>34.928660840917402</v>
       </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="8">
         <v>0</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33" s="10">
-        <v>0</v>
-      </c>
-      <c r="V33" s="10">
-        <v>0</v>
-      </c>
-      <c r="W33" s="10">
-        <v>0</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="10" t="s">
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z33">
@@ -3985,13 +3999,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>1970</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -4005,55 +4019,55 @@
       <c r="H34">
         <v>2</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="8">
         <v>137.15458222885201</v>
       </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="5">
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
         <v>0</v>
       </c>
       <c r="N34">
         <v>30.191875185410101</v>
       </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5">
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8">
         <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34" s="10">
-        <v>0</v>
-      </c>
-      <c r="V34" s="10">
-        <v>0</v>
-      </c>
-      <c r="W34" s="10">
-        <v>0</v>
-      </c>
-      <c r="X34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y34" s="10" t="s">
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z34">
@@ -4083,13 +4097,13 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>2000</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -4103,55 +4117,55 @@
       <c r="H35">
         <v>2</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="8">
         <v>-115.69250089550501</v>
       </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0</v>
-      </c>
-      <c r="M35" s="5">
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
         <v>0</v>
       </c>
       <c r="N35">
         <v>43.472654648830598</v>
       </c>
-      <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
         <v>0</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35" s="10">
-        <v>0</v>
-      </c>
-      <c r="V35" s="10">
-        <v>0</v>
-      </c>
-      <c r="W35" s="10">
-        <v>0</v>
-      </c>
-      <c r="X35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y35" s="10" t="s">
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z35">
@@ -4181,13 +4195,13 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>1970</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4201,55 +4215,55 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="8">
         <v>-121.084142128949</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="8">
         <v>-121.084142128949</v>
       </c>
-      <c r="K36" s="5">
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0</v>
-      </c>
-      <c r="M36" s="5">
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
         <v>0</v>
       </c>
       <c r="N36">
         <v>30.200365915227501</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="8">
         <v>30.200365915227501</v>
       </c>
-      <c r="P36" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5">
+      <c r="P36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="8">
         <v>28.421052631578949</v>
       </c>
       <c r="T36">
         <v>28.421052631578949</v>
       </c>
-      <c r="U36" s="10">
-        <v>0</v>
-      </c>
-      <c r="V36" s="10">
-        <v>0</v>
-      </c>
-      <c r="W36" s="10">
-        <v>0</v>
-      </c>
-      <c r="X36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y36" s="10" t="s">
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z36">
@@ -4279,13 +4293,13 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>1970</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4299,55 +4313,55 @@
       <c r="H37">
         <v>3</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="8">
         <v>26.0360193131133</v>
       </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0</v>
-      </c>
-      <c r="M37" s="5">
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
         <v>0</v>
       </c>
       <c r="N37">
         <v>1.1325526533749</v>
       </c>
-      <c r="O37" s="5">
-        <v>0</v>
-      </c>
-      <c r="P37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8">
         <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37" s="10">
-        <v>0</v>
-      </c>
-      <c r="V37" s="10">
-        <v>0</v>
-      </c>
-      <c r="W37" s="10">
-        <v>0</v>
-      </c>
-      <c r="X37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y37" s="10" t="s">
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+      <c r="V37" s="9">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z37">
@@ -4377,13 +4391,13 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>1970</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -4397,55 +4411,55 @@
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="8">
         <v>138.70169890491101</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="8">
         <v>138.70169890491101</v>
       </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
         <v>0</v>
       </c>
       <c r="N38">
         <v>30.949713752056098</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="8">
         <v>30.949713752056098</v>
       </c>
-      <c r="P38" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5">
+      <c r="P38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="8">
         <v>27</v>
       </c>
       <c r="T38">
         <v>27</v>
       </c>
-      <c r="U38" s="10">
-        <v>0</v>
-      </c>
-      <c r="V38" s="10">
-        <v>0</v>
-      </c>
-      <c r="W38" s="10">
-        <v>0</v>
-      </c>
-      <c r="X38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y38" s="10" t="s">
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z38">
@@ -4475,13 +4489,13 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1970</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4495,55 +4509,55 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
         <v>0</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8">
         <v>0</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39" s="10">
-        <v>0</v>
-      </c>
-      <c r="V39" s="10">
-        <v>0</v>
-      </c>
-      <c r="W39" s="10">
-        <v>0</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y39" s="10" t="s">
+      <c r="U39" s="9">
+        <v>0</v>
+      </c>
+      <c r="V39" s="9">
+        <v>0</v>
+      </c>
+      <c r="W39" s="9">
+        <v>0</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z39">
@@ -4573,13 +4587,13 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>1970</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -4593,55 +4607,55 @@
       <c r="H40">
         <v>2</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="8">
         <v>136.995420175905</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="8">
         <v>136.995420175905</v>
       </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
         <v>0</v>
       </c>
       <c r="N40">
         <v>30.801108451934599</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="8">
         <v>30.801108451934599</v>
       </c>
-      <c r="P40" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5">
+      <c r="P40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
         <v>28.421052631578949</v>
       </c>
       <c r="T40">
         <v>28.421052631578949</v>
       </c>
-      <c r="U40" s="10">
-        <v>0</v>
-      </c>
-      <c r="V40" s="10">
-        <v>0</v>
-      </c>
-      <c r="W40" s="10">
-        <v>0</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y40" s="10" t="s">
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <v>0</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z40">
@@ -4671,13 +4685,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>2000</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -4691,55 +4705,55 @@
       <c r="H41">
         <v>2</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="8">
         <v>162.26516387650801</v>
       </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
       <c r="N41">
         <v>50.217356909606501</v>
       </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
         <v>0</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41" s="10">
-        <v>0</v>
-      </c>
-      <c r="V41" s="10">
-        <v>0</v>
-      </c>
-      <c r="W41" s="10">
-        <v>0</v>
-      </c>
-      <c r="X41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y41" s="10" t="s">
+      <c r="U41" s="9">
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z41">
@@ -4769,13 +4783,13 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>1970</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -4789,55 +4803,55 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="8">
         <v>170.84066440883299</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="8">
         <v>171.01313404333999</v>
       </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
         <v>0</v>
       </c>
       <c r="N42">
         <v>50.152368914580897</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="8">
         <v>24.240139955560501</v>
       </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="8">
         <v>24.157894736842103</v>
       </c>
       <c r="T42">
         <v>24.157894736842103</v>
       </c>
-      <c r="U42" s="10">
-        <v>0</v>
-      </c>
-      <c r="V42" s="10">
-        <v>0</v>
-      </c>
-      <c r="W42" s="10">
-        <v>0</v>
-      </c>
-      <c r="X42" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y42" s="10" t="s">
+      <c r="U42" s="9">
+        <v>0</v>
+      </c>
+      <c r="V42" s="9">
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <v>0</v>
+      </c>
+      <c r="X42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z42">
@@ -4867,13 +4881,13 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4887,55 +4901,55 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="8">
         <v>-115.67016364525399</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="8">
         <v>-115.67016364525399</v>
       </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5">
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
         <v>0</v>
       </c>
       <c r="N43">
         <v>40.671711936913297</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="8">
         <v>40.671711936913297</v>
       </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
-        <v>0</v>
-      </c>
-      <c r="S43" s="5">
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8">
         <v>54</v>
       </c>
       <c r="T43">
         <v>54</v>
       </c>
-      <c r="U43" s="10">
-        <v>0</v>
-      </c>
-      <c r="V43" s="10">
-        <v>0</v>
-      </c>
-      <c r="W43" s="10">
-        <v>0</v>
-      </c>
-      <c r="X43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y43" s="10" t="s">
+      <c r="U43" s="9">
+        <v>0</v>
+      </c>
+      <c r="V43" s="9">
+        <v>0</v>
+      </c>
+      <c r="W43" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z43">
@@ -4965,13 +4979,13 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -4985,55 +4999,55 @@
       <c r="H44">
         <v>3</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="8">
         <v>-119.920007728173</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="8">
         <v>-119.920007728173</v>
       </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
         <v>0</v>
       </c>
       <c r="N44">
         <v>29.983404166683101</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="8">
         <v>29.983404166683101</v>
       </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
         <v>31.263157894736842</v>
       </c>
       <c r="T44">
         <v>31.263157894736842</v>
       </c>
-      <c r="U44" s="10">
-        <v>0</v>
-      </c>
-      <c r="V44" s="10">
-        <v>0</v>
-      </c>
-      <c r="W44" s="10">
-        <v>0</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y44" s="10" t="s">
+      <c r="U44" s="9">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y44" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z44">
@@ -5063,13 +5077,13 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>1970</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -5083,55 +5097,55 @@
       <c r="H45">
         <v>3</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="8">
         <v>-115.804883318213</v>
       </c>
-      <c r="J45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
         <v>0</v>
       </c>
       <c r="N45">
         <v>41.777633912664001</v>
       </c>
-      <c r="O45" s="5">
-        <v>0</v>
-      </c>
-      <c r="P45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+      <c r="S45" s="8">
         <v>0</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45" s="10">
-        <v>0</v>
-      </c>
-      <c r="V45" s="10">
-        <v>0</v>
-      </c>
-      <c r="W45" s="10">
-        <v>0</v>
-      </c>
-      <c r="X45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y45" s="10" t="s">
+      <c r="U45" s="9">
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <v>0</v>
+      </c>
+      <c r="X45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y45" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z45">
@@ -5161,13 +5175,13 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>1970</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -5181,55 +5195,55 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="8">
         <v>-122.30841119530901</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="8">
         <v>-122.30841119530901</v>
       </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
         <v>0</v>
       </c>
       <c r="N46">
         <v>28.9377767487331</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="8">
         <v>28.9377767487331</v>
       </c>
-      <c r="P46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
+      <c r="P46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0</v>
+      </c>
+      <c r="S46" s="8">
         <v>32.684210526315788</v>
       </c>
       <c r="T46">
         <v>32.684210526315788</v>
       </c>
-      <c r="U46" s="10">
-        <v>0</v>
-      </c>
-      <c r="V46" s="10">
-        <v>0</v>
-      </c>
-      <c r="W46" s="10">
-        <v>0</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y46" s="10" t="s">
+      <c r="U46" s="9">
+        <v>0</v>
+      </c>
+      <c r="V46" s="9">
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <v>0</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y46" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z46">
@@ -5259,13 +5273,13 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>1980</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -5279,55 +5293,55 @@
       <c r="H47">
         <v>2</v>
       </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8">
         <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
-      <c r="O47" s="5">
-        <v>0</v>
-      </c>
-      <c r="P47" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>0</v>
-      </c>
-      <c r="R47" s="5">
-        <v>0</v>
-      </c>
-      <c r="S47" s="5">
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
+      <c r="S47" s="8">
         <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47" s="10">
-        <v>0</v>
-      </c>
-      <c r="V47" s="10">
-        <v>0</v>
-      </c>
-      <c r="W47" s="10">
-        <v>0</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y47" s="10" t="s">
+      <c r="U47" s="9">
+        <v>0</v>
+      </c>
+      <c r="V47" s="9">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <v>0</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z47">
@@ -5357,13 +5371,13 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>1970</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -5377,55 +5391,55 @@
       <c r="H48">
         <v>3</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="8">
         <v>-109.24733176929099</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="8">
         <v>-109.24733176929099</v>
       </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
         <v>0</v>
       </c>
       <c r="N48">
         <v>43.1560182079496</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="8">
         <v>43.1560182079496</v>
       </c>
-      <c r="P48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
-        <v>0</v>
-      </c>
-      <c r="S48" s="5">
+      <c r="P48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="8">
         <v>45.473684210526315</v>
       </c>
       <c r="T48">
         <v>45.473684210526315</v>
       </c>
-      <c r="U48" s="10">
-        <v>0</v>
-      </c>
-      <c r="V48" s="10">
-        <v>0</v>
-      </c>
-      <c r="W48" s="10">
-        <v>0</v>
-      </c>
-      <c r="X48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y48" s="10" t="s">
+      <c r="U48" s="9">
+        <v>0</v>
+      </c>
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y48" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z48">
@@ -5455,13 +5469,13 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>1970</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -5475,55 +5489,55 @@
       <c r="H49">
         <v>3</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="8">
         <v>-116.04814305543501</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="8">
         <v>-116.04814305543501</v>
       </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
-      <c r="M49" s="5">
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
         <v>0</v>
       </c>
       <c r="N49">
         <v>43.9290607189035</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O49" s="8">
         <v>43.9290607189035</v>
       </c>
-      <c r="P49" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>0</v>
-      </c>
-      <c r="R49" s="5">
-        <v>0</v>
-      </c>
-      <c r="S49" s="5">
+      <c r="P49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
         <v>63.94736842105263</v>
       </c>
       <c r="T49">
         <v>63.94736842105263</v>
       </c>
-      <c r="U49" s="10">
-        <v>0</v>
-      </c>
-      <c r="V49" s="10">
-        <v>0</v>
-      </c>
-      <c r="W49" s="10">
-        <v>0</v>
-      </c>
-      <c r="X49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y49" s="10" t="s">
+      <c r="U49" s="9">
+        <v>0</v>
+      </c>
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y49" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z49">
@@ -5553,13 +5567,13 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E50">
         <v>9</v>
@@ -5573,55 +5587,55 @@
       <c r="H50">
         <v>3</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="8">
         <v>-127.095160173796</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="8">
         <v>-126.430317341294</v>
       </c>
-      <c r="K50" s="5">
-        <v>0</v>
-      </c>
-      <c r="L50" s="5">
-        <v>0</v>
-      </c>
-      <c r="M50" s="5">
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8">
         <v>0</v>
       </c>
       <c r="N50">
         <v>36.406562264259001</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O50" s="8">
         <v>49.521649772553097</v>
       </c>
-      <c r="P50" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>0</v>
-      </c>
-      <c r="R50" s="5">
-        <v>0</v>
-      </c>
-      <c r="S50" s="5">
+      <c r="P50" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="8">
         <v>29.842105263157894</v>
       </c>
       <c r="T50">
         <v>29.842105263157894</v>
       </c>
-      <c r="U50" s="10">
-        <v>0</v>
-      </c>
-      <c r="V50" s="10">
-        <v>0</v>
-      </c>
-      <c r="W50" s="10">
-        <v>0</v>
-      </c>
-      <c r="X50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y50" s="10" t="s">
+      <c r="U50" s="9">
+        <v>0</v>
+      </c>
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y50" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z50">
@@ -5651,13 +5665,13 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>1970</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5671,55 +5685,55 @@
       <c r="H51">
         <v>2</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="8">
         <v>-102.29184564214</v>
       </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="5">
-        <v>0</v>
-      </c>
-      <c r="L51" s="5">
-        <v>0</v>
-      </c>
-      <c r="M51" s="5">
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
         <v>0</v>
       </c>
       <c r="N51">
         <v>0.35912327253874199</v>
       </c>
-      <c r="O51" s="5">
-        <v>0</v>
-      </c>
-      <c r="P51" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>0</v>
-      </c>
-      <c r="R51" s="5">
-        <v>0</v>
-      </c>
-      <c r="S51" s="5">
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
         <v>0</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="10">
-        <v>0</v>
-      </c>
-      <c r="V51" s="10">
-        <v>0</v>
-      </c>
-      <c r="W51" s="10">
-        <v>0</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y51" s="10" t="s">
+      <c r="U51" s="9">
+        <v>0</v>
+      </c>
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>0</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y51" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z51">
@@ -5749,13 +5763,13 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -5769,55 +5783,55 @@
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="8">
         <v>-40.726053898656701</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="8">
         <v>58.607471084859398</v>
       </c>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5">
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8">
         <v>0</v>
       </c>
       <c r="N52">
         <v>0.16454383165474801</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="8">
         <v>0.17595327049880299</v>
       </c>
-      <c r="P52" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5">
-        <v>0</v>
-      </c>
-      <c r="S52" s="5">
+      <c r="P52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8">
         <v>18.473684210526315</v>
       </c>
       <c r="T52">
         <v>18.473684210526315</v>
       </c>
-      <c r="U52" s="10">
-        <v>0</v>
-      </c>
-      <c r="V52" s="10">
-        <v>0</v>
-      </c>
-      <c r="W52" s="10">
-        <v>0</v>
-      </c>
-      <c r="X52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y52" s="10" t="s">
+      <c r="U52" s="9">
+        <v>0</v>
+      </c>
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <v>0</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y52" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z52">
@@ -5847,13 +5861,13 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>1990</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -5867,55 +5881,55 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="8">
         <v>-116.56505118126</v>
       </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="5">
-        <v>0</v>
-      </c>
-      <c r="L53" s="5">
-        <v>0</v>
-      </c>
-      <c r="M53" s="5">
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8">
         <v>0</v>
       </c>
       <c r="N53">
         <v>43.780572656200299</v>
       </c>
-      <c r="O53" s="5">
-        <v>0</v>
-      </c>
-      <c r="P53" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>0</v>
-      </c>
-      <c r="R53" s="5">
-        <v>0</v>
-      </c>
-      <c r="S53" s="5">
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>0</v>
+      </c>
+      <c r="S53" s="8">
         <v>0</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53" s="10">
-        <v>0</v>
-      </c>
-      <c r="V53" s="10">
-        <v>0</v>
-      </c>
-      <c r="W53" s="10">
-        <v>0</v>
-      </c>
-      <c r="X53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y53" s="10" t="s">
+      <c r="U53" s="9">
+        <v>0</v>
+      </c>
+      <c r="V53" s="9">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9">
+        <v>0</v>
+      </c>
+      <c r="X53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y53" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z53">
@@ -5945,13 +5959,13 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C54">
         <v>2000</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E54">
         <v>6</v>
@@ -5965,55 +5979,55 @@
       <c r="H54">
         <v>2</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="8">
         <v>144.494781232067</v>
       </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="5">
-        <v>0</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="5">
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
         <v>0</v>
       </c>
       <c r="N54">
         <v>45.637498585651002</v>
       </c>
-      <c r="O54" s="5">
-        <v>0</v>
-      </c>
-      <c r="P54" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5">
-        <v>0</v>
-      </c>
-      <c r="S54" s="5">
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8">
         <v>0</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54" s="10">
-        <v>0</v>
-      </c>
-      <c r="V54" s="10">
-        <v>0</v>
-      </c>
-      <c r="W54" s="10">
-        <v>0</v>
-      </c>
-      <c r="X54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y54" s="10" t="s">
+      <c r="U54" s="9">
+        <v>0</v>
+      </c>
+      <c r="V54" s="9">
+        <v>0</v>
+      </c>
+      <c r="W54" s="9">
+        <v>0</v>
+      </c>
+      <c r="X54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y54" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z54">
@@ -6043,13 +6057,13 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -6063,55 +6077,55 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="8">
         <v>161.25333205522799</v>
       </c>
-      <c r="J55" s="5">
-        <v>0</v>
-      </c>
-      <c r="K55" s="5">
-        <v>0</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="5">
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
         <v>0</v>
       </c>
       <c r="N55">
         <v>50.1879193451053</v>
       </c>
-      <c r="O55" s="5">
-        <v>0</v>
-      </c>
-      <c r="P55" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>0</v>
-      </c>
-      <c r="R55" s="5">
-        <v>0</v>
-      </c>
-      <c r="S55" s="5">
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+      <c r="S55" s="8">
         <v>0</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55" s="10">
-        <v>0</v>
-      </c>
-      <c r="V55" s="10">
-        <v>0</v>
-      </c>
-      <c r="W55" s="10">
-        <v>0</v>
-      </c>
-      <c r="X55" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y55" s="10" t="s">
+      <c r="U55" s="9">
+        <v>0</v>
+      </c>
+      <c r="V55" s="9">
+        <v>0</v>
+      </c>
+      <c r="W55" s="9">
+        <v>0</v>
+      </c>
+      <c r="X55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y55" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z55">
@@ -6141,13 +6155,13 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -6161,55 +6175,55 @@
       <c r="H56">
         <v>3</v>
       </c>
-      <c r="I56" s="5">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5">
-        <v>0</v>
-      </c>
-      <c r="K56" s="5">
-        <v>0</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
-      <c r="M56" s="5">
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8">
         <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="O56" s="5">
-        <v>0</v>
-      </c>
-      <c r="P56" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>0</v>
-      </c>
-      <c r="R56" s="5">
-        <v>0</v>
-      </c>
-      <c r="S56" s="5">
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="S56" s="8">
         <v>0</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56" s="10">
-        <v>0</v>
-      </c>
-      <c r="V56" s="10">
-        <v>0</v>
-      </c>
-      <c r="W56" s="10">
-        <v>0</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y56" s="10" t="s">
+      <c r="U56" s="9">
+        <v>0</v>
+      </c>
+      <c r="V56" s="9">
+        <v>0</v>
+      </c>
+      <c r="W56" s="9">
+        <v>0</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y56" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z56">
@@ -6239,13 +6253,13 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>1970</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -6259,55 +6273,55 @@
       <c r="H57">
         <v>2</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="8">
         <v>-179.61287225424601</v>
       </c>
-      <c r="J57" s="5">
-        <v>0</v>
-      </c>
-      <c r="K57" s="5">
-        <v>0</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
-      <c r="M57" s="5">
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8">
         <v>0</v>
       </c>
       <c r="N57">
         <v>0.48922649550893399</v>
       </c>
-      <c r="O57" s="5">
-        <v>0</v>
-      </c>
-      <c r="P57" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="5">
-        <v>0</v>
-      </c>
-      <c r="R57" s="5">
-        <v>0</v>
-      </c>
-      <c r="S57" s="5">
+      <c r="O57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="S57" s="8">
         <v>0</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57" s="10">
-        <v>0</v>
-      </c>
-      <c r="V57" s="10">
-        <v>0</v>
-      </c>
-      <c r="W57" s="10">
-        <v>0</v>
-      </c>
-      <c r="X57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y57" s="10" t="s">
+      <c r="U57" s="9">
+        <v>0</v>
+      </c>
+      <c r="V57" s="9">
+        <v>0</v>
+      </c>
+      <c r="W57" s="9">
+        <v>0</v>
+      </c>
+      <c r="X57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z57">
@@ -6337,13 +6351,13 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C58">
         <v>1970</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -6357,55 +6371,55 @@
       <c r="H58">
         <v>2</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="8">
         <v>-116.421453019224</v>
       </c>
-      <c r="J58" s="5">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5">
-        <v>0</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
-      <c r="M58" s="5">
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8">
         <v>0</v>
       </c>
       <c r="N58">
         <v>50.594492101653699</v>
       </c>
-      <c r="O58" s="5">
-        <v>0</v>
-      </c>
-      <c r="P58" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>0</v>
-      </c>
-      <c r="R58" s="5">
-        <v>0</v>
-      </c>
-      <c r="S58" s="5">
+      <c r="O58" s="8">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="8">
         <v>0</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
-      <c r="U58" s="10">
-        <v>0</v>
-      </c>
-      <c r="V58" s="10">
-        <v>0</v>
-      </c>
-      <c r="W58" s="10">
-        <v>0</v>
-      </c>
-      <c r="X58" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y58" s="10" t="s">
+      <c r="U58" s="9">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9">
+        <v>0</v>
+      </c>
+      <c r="W58" s="9">
+        <v>0</v>
+      </c>
+      <c r="X58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y58" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z58">
@@ -6435,13 +6449,13 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C59">
         <v>1970</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -6455,55 +6469,55 @@
       <c r="H59">
         <v>1</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="8">
         <v>135.94548264839099</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="8">
         <v>135.94548264839099</v>
       </c>
-      <c r="K59" s="5">
-        <v>0</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0</v>
-      </c>
-      <c r="M59" s="5">
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8">
         <v>0</v>
       </c>
       <c r="N59">
         <v>31.085023671997199</v>
       </c>
-      <c r="O59" s="5">
+      <c r="O59" s="8">
         <v>31.085023671997199</v>
       </c>
-      <c r="P59" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>0</v>
-      </c>
-      <c r="R59" s="5">
-        <v>0</v>
-      </c>
-      <c r="S59" s="5">
+      <c r="P59" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="S59" s="8">
         <v>29.842105263157894</v>
       </c>
       <c r="T59">
         <v>29.842105263157894</v>
       </c>
-      <c r="U59" s="10">
-        <v>0</v>
-      </c>
-      <c r="V59" s="10">
-        <v>0</v>
-      </c>
-      <c r="W59" s="10">
-        <v>0</v>
-      </c>
-      <c r="X59" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y59" s="10" t="s">
+      <c r="U59" s="9">
+        <v>0</v>
+      </c>
+      <c r="V59" s="9">
+        <v>0</v>
+      </c>
+      <c r="W59" s="9">
+        <v>0</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y59" s="9" t="s">
         <v>13</v>
       </c>
       <c r="Z59">
@@ -6539,10 +6553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2EAC4B-FACB-4F76-B3EC-C233CE563D93}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6554,37 +6568,49 @@
     <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
